--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77179.78026031621</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77179.78026031621</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035694899.018743</v>
+        <v>38677128.87905559</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11332.23623093956</v>
+        <v>961821.1122612505</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21486.46119583877</v>
+        <v>1719789.14239087</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31633.57086556412</v>
+        <v>2477757.172520491</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41994.39299894572</v>
+        <v>3234965.505107259</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52355.21513232731</v>
+        <v>3992173.837694027</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62716.03407936575</v>
+        <v>4749382.170280794</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73076.85621274734</v>
+        <v>5506590.502867557</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83437.67834612895</v>
+        <v>6263798.835454321</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>93798.47851858697</v>
+        <v>7021007.168041083</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104159.3006519686</v>
+        <v>7778215.500627847</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114520.119599007</v>
+        <v>8535423.833214609</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124880.9417323886</v>
+        <v>9292632.165801376</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>135241.7606794271</v>
+        <v>10049840.49838815</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>145602.5828128087</v>
+        <v>10807048.83097492</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>155963.4049461904</v>
+        <v>11564257.1635617</v>
       </c>
     </row>
   </sheetData>
